--- a/data/99. analyzes/excel/2016_pharma_summarize.xlsx
+++ b/data/99. analyzes/excel/2016_pharma_summarize.xlsx
@@ -1092,7 +1092,7 @@
         <v>1097937</v>
       </c>
       <c r="C17" t="n">
-        <v>2566682</v>
+        <v>2553422</v>
       </c>
       <c r="D17" t="n">
         <v>82808</v>
@@ -1110,7 +1110,7 @@
         <v>3766113</v>
       </c>
       <c r="I17" t="n">
-        <v>8153222</v>
+        <v>8139962</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1736,7 +1736,7 @@
         <v>282801.9400000001</v>
       </c>
       <c r="E39" t="n">
-        <v>271875.48</v>
+        <v>271875.4799999999</v>
       </c>
       <c r="F39" t="n">
         <v>2965684.23</v>
@@ -3492,7 +3492,7 @@
         <v>1097937</v>
       </c>
       <c r="D46" t="n">
-        <v>2566682</v>
+        <v>2553422</v>
       </c>
       <c r="E46" t="n">
         <v>50912</v>
@@ -3507,7 +3507,7 @@
         <v>982</v>
       </c>
       <c r="I46" t="n">
-        <v>3898645</v>
+        <v>3885385</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7997,7 +7997,7 @@
         <v>1097937</v>
       </c>
       <c r="D46" t="n">
-        <v>2566682</v>
+        <v>2553422</v>
       </c>
       <c r="E46" t="n">
         <v>50912</v>
@@ -8012,7 +8012,7 @@
         <v>982</v>
       </c>
       <c r="I46" t="n">
-        <v>3898645</v>
+        <v>3885385</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -11669,7 +11669,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>3364183</v>
+        <v>3350923</v>
       </c>
       <c r="C22" t="n">
         <v>77</v>
@@ -11681,7 +11681,7 @@
         <v>23</v>
       </c>
       <c r="F22" t="n">
-        <v>4387109</v>
+        <v>4373849</v>
       </c>
     </row>
     <row r="23" spans="1:6">

--- a/data/99. analyzes/excel/2016_pharma_summarize.xlsx
+++ b/data/99. analyzes/excel/2016_pharma_summarize.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>info</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>hcp</t>
+  </si>
+  <si>
+    <t>hco_amount</t>
+  </si>
+  <si>
+    <t>hcp_amount</t>
   </si>
   <si>
     <t>offen</t>
@@ -1977,7 +1983,7 @@
         <v>65496</v>
       </c>
       <c r="H47" t="n">
-        <v>258913.8000000003</v>
+        <v>258913.8</v>
       </c>
       <c r="I47" t="n">
         <v>1587584.16</v>
@@ -2035,7 +2041,7 @@
         <v>815.78</v>
       </c>
       <c r="H49" t="n">
-        <v>24424.40999999997</v>
+        <v>24424.41000000003</v>
       </c>
       <c r="I49" t="n">
         <v>274898.28</v>
@@ -6731,7 +6737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6779,7 +6785,7 @@
         <v>1151852</v>
       </c>
       <c r="D2" t="n">
-        <v>3439785</v>
+        <v>3438785</v>
       </c>
       <c r="E2" t="n">
         <v>18776</v>
@@ -6788,46 +6794,46 @@
         <v>35810</v>
       </c>
       <c r="G2" t="n">
-        <v>118601</v>
+        <v>115801</v>
       </c>
       <c r="H2" t="n">
         <v>2489</v>
       </c>
       <c r="I2" t="n">
-        <v>4767313</v>
+        <v>4763513</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>111794</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>234816</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>159165</v>
+        <v>2800</v>
       </c>
       <c r="H3" t="n">
-        <v>6229</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>512004</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -6836,54 +6842,52 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110730</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>230966</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>147565</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4974</v>
       </c>
       <c r="I4" t="n">
-        <v>2657394</v>
+        <v>494235</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" t="n">
-        <v>778271</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>157476</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9378</v>
+        <v>1064</v>
       </c>
       <c r="F5" t="n">
-        <v>10708</v>
+        <v>3850</v>
       </c>
       <c r="G5" t="n">
-        <v>19088</v>
+        <v>11600</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="I5" t="n">
-        <v>974921</v>
+        <v>17769</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -6892,75 +6896,75 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>35549</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>69022</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>29568</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4856</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>138995</v>
+        <v>2657394</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>221135</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>114324</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7044</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>7133</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2219144</v>
+        <v>354136</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" t="n">
-        <v>292213.24</v>
+        <v>557136</v>
       </c>
       <c r="D8" t="n">
-        <v>213196.39</v>
+        <v>43152</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2334</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3575</v>
       </c>
       <c r="G8" t="n">
-        <v>6120</v>
+        <v>14588</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>511529.63</v>
+        <v>620785</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6975,60 +6979,58 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>21921</v>
       </c>
       <c r="F9" t="n">
-        <v>14737.97</v>
+        <v>43420</v>
       </c>
       <c r="G9" t="n">
-        <v>19889.2</v>
+        <v>9000</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>34627.17</v>
+        <v>74341</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13628</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25602</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20568</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4856</v>
+      </c>
+      <c r="I10" t="n">
+        <v>64654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>337436</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7043,129 +7045,131 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>337436</v>
+        <v>2219144</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>292213.24</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>213196.39</v>
       </c>
       <c r="E12" t="n">
-        <v>29903</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>95100</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>228130</v>
+        <v>6120</v>
       </c>
       <c r="H12" t="n">
-        <v>18783</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>371916</v>
+        <v>511529.63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14737.97</v>
+      </c>
+      <c r="G13" t="n">
+        <v>19889.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>34627.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>279622.8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>279622.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>216626</v>
       </c>
       <c r="E15" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>10776.7</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>9784.93</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>464.57</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21326.2</v>
+        <v>216626</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>120810</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7180,42 +7184,40 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>15000</v>
+        <v>120810</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>389934.14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2225107.4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>49308.99000000001</v>
+        <v>24736</v>
       </c>
       <c r="F17" t="n">
-        <v>196897.49</v>
+        <v>52728</v>
       </c>
       <c r="G17" t="n">
-        <v>199538.02</v>
+        <v>126730</v>
       </c>
       <c r="H17" t="n">
-        <v>11264.7</v>
+        <v>8504</v>
       </c>
       <c r="I17" t="n">
-        <v>3072050.74</v>
+        <v>212698</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -7224,19 +7226,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>94362.14000000004</v>
+        <v>5167</v>
       </c>
       <c r="F18" t="n">
-        <v>400012.9700000001</v>
+        <v>42372</v>
       </c>
       <c r="G18" t="n">
-        <v>236116.54</v>
+        <v>101400</v>
       </c>
       <c r="H18" t="n">
-        <v>55929.94</v>
+        <v>10279</v>
       </c>
       <c r="I18" t="n">
-        <v>786421.5899999996</v>
+        <v>159218</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -7263,36 +7265,36 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1582211.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C20" t="n">
-        <v>392433.6</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1231797.2</v>
+        <v>279622.8</v>
       </c>
       <c r="E20" t="n">
-        <v>13723.4</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35809.1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>22933.5</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1696696.8</v>
+        <v>279622.8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -7304,22 +7306,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2489.2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>27848</v>
+        <v>300</v>
       </c>
       <c r="F21" t="n">
-        <v>61163.00000000001</v>
+        <v>10776.7</v>
       </c>
       <c r="G21" t="n">
-        <v>46418</v>
+        <v>9784.93</v>
       </c>
       <c r="H21" t="n">
-        <v>1800.7</v>
+        <v>464.57</v>
       </c>
       <c r="I21" t="n">
-        <v>139718.9</v>
+        <v>21326.2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -7346,36 +7348,36 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>679104.6</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C23" t="n">
-        <v>515539</v>
+        <v>389934.14</v>
       </c>
       <c r="D23" t="n">
-        <v>3232133</v>
+        <v>2225107.4</v>
       </c>
       <c r="E23" t="n">
-        <v>535</v>
+        <v>49308.99000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>86</v>
+        <v>196897.49</v>
       </c>
       <c r="G23" t="n">
-        <v>114949</v>
+        <v>199538.02</v>
       </c>
       <c r="H23" t="n">
-        <v>1610</v>
+        <v>11264.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3864852</v>
+        <v>3072050.74</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -7390,164 +7392,162 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>20465</v>
+        <v>68922.68000000004</v>
       </c>
       <c r="F24" t="n">
-        <v>33436</v>
+        <v>272743.7100000001</v>
       </c>
       <c r="G24" t="n">
-        <v>262330</v>
+        <v>67059.89</v>
       </c>
       <c r="H24" t="n">
-        <v>21969</v>
+        <v>6120.860000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>338200</v>
+        <v>414847.1399999997</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25439.46</v>
+      </c>
+      <c r="F25" t="n">
+        <v>127269.26</v>
+      </c>
+      <c r="G25" t="n">
+        <v>169056.65</v>
+      </c>
+      <c r="H25" t="n">
+        <v>49809.08</v>
+      </c>
+      <c r="I25" t="n">
+        <v>371574.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3389110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1582211.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C26" t="n">
-        <v>241680.06</v>
-      </c>
-      <c r="D26" t="n">
-        <v>153583.66</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>11135.34</v>
-      </c>
-      <c r="G26" t="n">
-        <v>41010.75</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1199.8</v>
-      </c>
-      <c r="I26" t="n">
-        <v>448609.6099999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>391433.6</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1191636.7</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>13229.9</v>
       </c>
       <c r="F27" t="n">
-        <v>17144.97</v>
+        <v>32389.6</v>
       </c>
       <c r="G27" t="n">
-        <v>21295.48</v>
+        <v>21933.5</v>
       </c>
       <c r="H27" t="n">
-        <v>938.88</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>39379.33</v>
+        <v>1650623.3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>40160.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>493.5</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3419.5</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>265619.65</v>
+        <v>46073.5</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" t="n">
-        <v>168506</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>22000.75</v>
+        <v>2489.2</v>
       </c>
       <c r="E29" t="n">
-        <v>21919.47</v>
+        <v>20085.8</v>
       </c>
       <c r="F29" t="n">
-        <v>9691.349999999999</v>
+        <v>42407.80000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>28788</v>
       </c>
       <c r="H29" t="n">
-        <v>15</v>
+        <v>817.7</v>
       </c>
       <c r="I29" t="n">
-        <v>222132.57</v>
+        <v>94588.50000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -7556,19 +7556,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>13555.37</v>
+        <v>7762.2</v>
       </c>
       <c r="F30" t="n">
-        <v>76146.08000000002</v>
+        <v>18755.2</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>17630</v>
       </c>
       <c r="H30" t="n">
-        <v>7240</v>
+        <v>983</v>
       </c>
       <c r="I30" t="n">
-        <v>96941.45000000003</v>
+        <v>45130.4</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7595,69 +7595,69 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>679104.6</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>1180</v>
+        <v>295953</v>
       </c>
       <c r="D32" t="n">
-        <v>4729633</v>
+        <v>1888676</v>
       </c>
       <c r="E32" t="n">
-        <v>24953.33</v>
+        <v>250</v>
       </c>
       <c r="F32" t="n">
-        <v>34811.76</v>
+        <v>86</v>
       </c>
       <c r="G32" t="n">
-        <v>233152.07</v>
+        <v>108521</v>
       </c>
       <c r="H32" t="n">
-        <v>4981.360000000001</v>
+        <v>1610</v>
       </c>
       <c r="I32" t="n">
-        <v>5028711.52</v>
+        <v>2295096</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>219586</v>
       </c>
       <c r="D33" t="n">
-        <v>17000</v>
+        <v>1343457</v>
       </c>
       <c r="E33" t="n">
-        <v>199420.37</v>
+        <v>285</v>
       </c>
       <c r="F33" t="n">
-        <v>646823.7099999998</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>517587.88</v>
+        <v>6428</v>
       </c>
       <c r="H33" t="n">
-        <v>60628.02</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1441459.98</v>
+        <v>1569756</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -7666,54 +7666,52 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>12477</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>18337</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160502</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>8660</v>
       </c>
       <c r="I34" t="n">
-        <v>2529317</v>
+        <v>199976</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>283760</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>7988</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>15099</v>
       </c>
       <c r="G35" t="n">
-        <v>8500</v>
+        <v>101828</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>13309</v>
       </c>
       <c r="I35" t="n">
-        <v>292260</v>
+        <v>138224</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -7722,81 +7720,81 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>8078</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>9558</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>42836</v>
+        <v>3389110</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C37" t="n">
-        <v>272000</v>
+        <v>241680.06</v>
       </c>
       <c r="D37" t="n">
-        <v>110519.2</v>
+        <v>143765.1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>4228.69</v>
+        <v>11135.34</v>
       </c>
       <c r="G37" t="n">
-        <v>472436.06</v>
+        <v>28644.9</v>
       </c>
       <c r="H37" t="n">
-        <v>1915.9</v>
+        <v>1199.8</v>
       </c>
       <c r="I37" t="n">
-        <v>861099.8500000001</v>
+        <v>426425.2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>9818.559999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>7056.9</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>17834.96</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>66680.08</v>
+        <v>12365.85</v>
       </c>
       <c r="H38" t="n">
-        <v>23417.65</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>114989.59</v>
+        <v>22184.41</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -7808,51 +7806,49 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>307.8</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>6375.27</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>547194.75</v>
+        <v>6683.070000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C40" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>247142</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2492</v>
+        <v>16837.17</v>
       </c>
       <c r="G40" t="n">
-        <v>4075</v>
+        <v>14920.21</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>938.88</v>
       </c>
       <c r="I40" t="n">
-        <v>256709</v>
+        <v>32696.26</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -7864,72 +7860,72 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1062</v>
+        <v>265619.65</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="1" t="n"/>
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>168506</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>22000.75</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>21919.47</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>9691.349999999999</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I42" t="n">
-        <v>1073</v>
+        <v>222132.57</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C43" t="n">
-        <v>614019.37</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2171802.16</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>817.63</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5348.139999999999</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68057.42999999999</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>313.94</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2860358.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7944,185 +7940,183 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>24473.49</v>
+        <v>13555.37</v>
       </c>
       <c r="F44" t="n">
-        <v>115654.9</v>
+        <v>76146.08000000002</v>
       </c>
       <c r="G44" t="n">
-        <v>277162.0699999999</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>21740</v>
+        <v>7240</v>
       </c>
       <c r="I44" t="n">
-        <v>439030.4600000001</v>
+        <v>96941.45000000003</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>819904.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C46" t="n">
-        <v>1097937</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2553422</v>
-      </c>
-      <c r="E46" t="n">
-        <v>50912</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>182132</v>
-      </c>
-      <c r="H46" t="n">
-        <v>982</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3885385</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>2830569.21</v>
       </c>
       <c r="E47" t="n">
-        <v>31896</v>
+        <v>17216.2</v>
       </c>
       <c r="F47" t="n">
-        <v>129710</v>
+        <v>23524.9</v>
       </c>
       <c r="G47" t="n">
-        <v>302935</v>
+        <v>176765.31</v>
       </c>
       <c r="H47" t="n">
-        <v>23923</v>
+        <v>3445.71</v>
       </c>
       <c r="I47" t="n">
-        <v>488464</v>
+        <v>3051521.33</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1899063.79</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>7737.13</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>11286.86</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>56386.76</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1535.65</v>
       </c>
       <c r="I48" t="n">
-        <v>3766113</v>
+        <v>1977190.19</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" t="n">
-        <v>417950.61</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>49093.57</v>
+        <v>15000</v>
       </c>
       <c r="E49" t="n">
-        <v>286602.85</v>
+        <v>72570.24000000002</v>
       </c>
       <c r="F49" t="n">
-        <v>26432.97</v>
+        <v>225417.7399999999</v>
       </c>
       <c r="G49" t="n">
-        <v>27831.87</v>
+        <v>216976.55</v>
       </c>
       <c r="H49" t="n">
-        <v>80.43000000000001</v>
+        <v>33434.35</v>
       </c>
       <c r="I49" t="n">
-        <v>807992.3000000002</v>
+        <v>563398.8800000005</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E50" t="n">
-        <v>94625.16999999998</v>
+        <v>126850.13</v>
       </c>
       <c r="F50" t="n">
-        <v>111002.04</v>
+        <v>421405.97</v>
       </c>
       <c r="G50" t="n">
-        <v>120282.73</v>
+        <v>300611.33</v>
       </c>
       <c r="H50" t="n">
-        <v>787.29</v>
+        <v>27193.67</v>
       </c>
       <c r="I50" t="n">
-        <v>326697.2300000002</v>
+        <v>878061.1</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -8149,21 +8143,21 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>169423.7</v>
+        <v>2529317</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C52" t="n">
-        <v>338498</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>259085.45</v>
+        <v>275760</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -8172,46 +8166,46 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>26720</v>
+        <v>8500</v>
       </c>
       <c r="H52" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>634703.45</v>
+        <v>284260</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E53" t="n">
-        <v>10553.4</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>36284.23</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>46790.9</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>5865.94</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>99494.46999999999</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -8220,137 +8214,135 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>8078</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>9558</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>368592.24</v>
+        <v>42836</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C55" t="n">
-        <v>31500</v>
-      </c>
-      <c r="D55" t="n">
-        <v>443859.003</v>
-      </c>
-      <c r="E55" t="n">
-        <v>7500</v>
-      </c>
-      <c r="F55" t="n">
-        <v>7865</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>18400</v>
-      </c>
-      <c r="I55" t="n">
-        <v>509124.003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>272000</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>104019.2</v>
       </c>
       <c r="E56" t="n">
-        <v>7959</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>14995</v>
+        <v>3294.86</v>
       </c>
       <c r="G56" t="n">
-        <v>103650</v>
+        <v>309694.87</v>
       </c>
       <c r="H56" t="n">
-        <v>1857</v>
+        <v>1915.9</v>
       </c>
       <c r="I56" t="n">
-        <v>128461</v>
+        <v>690924.8300000001</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>933.83</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>162741.19</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>64416</v>
+        <v>170175.02</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>44950.14</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>174.08</v>
+        <v>3261.36</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>9591.380000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>4719.6</v>
+        <v>33142.03</v>
       </c>
       <c r="H58" t="n">
-        <v>813.45</v>
+        <v>15682.35</v>
       </c>
       <c r="I58" t="n">
-        <v>50657.27</v>
+        <v>61677.11999999998</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -8359,19 +8351,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>3795.54</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>8243.58</v>
       </c>
       <c r="G59" t="n">
-        <v>13545.66</v>
+        <v>33538.05</v>
       </c>
       <c r="H59" t="n">
-        <v>99.8</v>
+        <v>7735.3</v>
       </c>
       <c r="I59" t="n">
-        <v>13645.46</v>
+        <v>53312.47</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -8398,69 +8390,69 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>276513.8</v>
+        <v>547194.75</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C61" t="n">
-        <v>27369</v>
+        <v>3000</v>
       </c>
       <c r="D61" t="n">
-        <v>2342782</v>
+        <v>163280</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>387</v>
+        <v>1486</v>
       </c>
       <c r="G61" t="n">
-        <v>80255</v>
+        <v>2658</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>2450793</v>
+        <v>170424</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>83862</v>
       </c>
       <c r="E62" t="n">
-        <v>8611</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>12818</v>
+        <v>1006</v>
       </c>
       <c r="G62" t="n">
-        <v>225630</v>
+        <v>1417</v>
       </c>
       <c r="H62" t="n">
-        <v>33755</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>280814</v>
+        <v>86285</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -8472,128 +8464,126 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>450021</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C64" t="n">
-        <v>183100</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>127255</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>3725</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>323194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>9693</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>22320</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>22532</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>65633</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="1" t="n"/>
+      <c r="A66" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>389815.08</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1869538.54</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>817.63</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1220.02</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>63857.43</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>313.94</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2325562.64</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C67" t="n">
-        <v>76773</v>
+        <v>224204.29</v>
       </c>
       <c r="D67" t="n">
-        <v>6589</v>
+        <v>302263.62</v>
       </c>
       <c r="E67" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>9446.41</v>
+        <v>4128.12</v>
       </c>
       <c r="G67" t="n">
-        <v>13500</v>
+        <v>4200</v>
       </c>
       <c r="H67" t="n">
-        <v>519.74</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>107728.15</v>
+        <v>534796.03</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -8608,54 +8598,52 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>13420.34</v>
+        <v>8135.16</v>
       </c>
       <c r="F68" t="n">
-        <v>41276.16</v>
+        <v>51814.69999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>13813.64</v>
+        <v>105985.08</v>
       </c>
       <c r="H68" t="n">
-        <v>1389.21</v>
+        <v>11561.24</v>
       </c>
       <c r="I68" t="n">
-        <v>69899.34999999999</v>
+        <v>177496.1800000001</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>54404</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>16338.33</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>63840.2</v>
       </c>
       <c r="G69" t="n">
-        <v>71700</v>
+        <v>171176.99</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>10178.76</v>
       </c>
       <c r="I69" t="n">
-        <v>126104</v>
+        <v>261534.28</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -8664,75 +8652,75 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>703.35</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>61468.7</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>60120.55</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>800.6</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>123093.2</v>
+        <v>819904.1</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="1" t="n"/>
+      <c r="A71" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>739014</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>2157141</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>50912</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>136412</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>3083992</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C72" t="n">
-        <v>1501560.18</v>
+        <v>358923</v>
       </c>
       <c r="D72" t="n">
-        <v>1081739.92</v>
+        <v>396281</v>
       </c>
       <c r="E72" t="n">
-        <v>84055.53999999998</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>127775.41</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>76985.41</v>
+        <v>45720</v>
       </c>
       <c r="H72" t="n">
-        <v>6282.440000000001</v>
+        <v>469</v>
       </c>
       <c r="I72" t="n">
-        <v>2878398.9</v>
+        <v>801393</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -8747,108 +8735,108 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>50875.13999999999</v>
+        <v>20409</v>
       </c>
       <c r="F73" t="n">
-        <v>200344.7899999999</v>
+        <v>69152</v>
       </c>
       <c r="G73" t="n">
-        <v>91015.74000000001</v>
+        <v>163383</v>
       </c>
       <c r="H73" t="n">
-        <v>11482.85</v>
+        <v>13987</v>
       </c>
       <c r="I73" t="n">
-        <v>353718.52</v>
+        <v>266931</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>11487</v>
+      </c>
+      <c r="F74" t="n">
+        <v>60558</v>
+      </c>
+      <c r="G74" t="n">
+        <v>139552</v>
+      </c>
+      <c r="H74" t="n">
+        <v>9936</v>
+      </c>
+      <c r="I74" t="n">
+        <v>221533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>323107.23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3766113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C75" t="n">
-        <v>3286875.65</v>
-      </c>
-      <c r="D75" t="n">
-        <v>2553543.09</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>22234</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2309.1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5864961.84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>417950.61</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>49093.57</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>286602.85</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>26432.97</v>
       </c>
       <c r="G76" t="n">
-        <v>46910</v>
+        <v>27831.87</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>46910</v>
+        <v>807992.3000000002</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -8869,42 +8857,40 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>477699.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C78" t="n">
-        <v>44680.4</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>221529.3</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>85939.65999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>99787.92999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>103079.69</v>
       </c>
       <c r="H78" t="n">
-        <v>1624.45</v>
+        <v>468.9</v>
       </c>
       <c r="I78" t="n">
-        <v>267834.15</v>
+        <v>289276.1800000002</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -8913,19 +8899,19 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>6739.719999999999</v>
+        <v>8685.51</v>
       </c>
       <c r="F79" t="n">
-        <v>13176.36</v>
+        <v>11214.11</v>
       </c>
       <c r="G79" t="n">
-        <v>18774.74</v>
+        <v>17203.04</v>
       </c>
       <c r="H79" t="n">
-        <v>2170.4</v>
+        <v>318.39</v>
       </c>
       <c r="I79" t="n">
-        <v>40861.22</v>
+        <v>37421.05</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -8952,21 +8938,21 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>7415</v>
+        <v>169423.7</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>338498</v>
       </c>
       <c r="D81" t="n">
-        <v>9500</v>
+        <v>239085.45</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -8975,25 +8961,25 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>26720</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="I81" t="n">
-        <v>9500</v>
+        <v>614703.45</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -9005,16 +8991,16 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>23</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -9023,54 +9009,52 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>10081.07</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>36284.23</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>43659</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>4429.9</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>94454.19999999998</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C84" t="n">
-        <v>2230838</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>738503</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>472.33</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>72967</v>
+        <v>3131.9</v>
       </c>
       <c r="H84" t="n">
-        <v>29</v>
+        <v>1436.04</v>
       </c>
       <c r="I84" t="n">
-        <v>3042337</v>
+        <v>5040.27</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -9079,75 +9063,75 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>17893</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>39251</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>124545</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>9953</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>191642</v>
+        <v>368592.24</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="1" t="n"/>
+      <c r="A86" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B86" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>31500</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>416559.003</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>7865</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="I86" t="n">
-        <v>833283</v>
+        <v>480624.003</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C87" t="n">
-        <v>24564.24</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>186037.19</v>
+        <v>27300</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I87" t="n">
-        <v>215651.43</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -9162,108 +9146,108 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>803.4400000000001</v>
+        <v>6662</v>
       </c>
       <c r="F88" t="n">
-        <v>2116.98</v>
+        <v>11792</v>
       </c>
       <c r="G88" t="n">
-        <v>37017.8</v>
+        <v>56000</v>
       </c>
       <c r="H88" t="n">
-        <v>2262.41</v>
+        <v>1397</v>
       </c>
       <c r="I88" t="n">
-        <v>42200.63</v>
+        <v>75851</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1297</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3203</v>
+      </c>
+      <c r="G89" t="n">
+        <v>47650</v>
+      </c>
+      <c r="H89" t="n">
+        <v>460</v>
+      </c>
+      <c r="I89" t="n">
+        <v>52610</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>64416</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C90" t="n">
-        <v>10544</v>
-      </c>
-      <c r="D90" t="n">
-        <v>395949</v>
-      </c>
-      <c r="E90" t="n">
-        <v>826</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1284</v>
-      </c>
-      <c r="G90" t="n">
-        <v>13126</v>
-      </c>
-      <c r="H90" t="n">
-        <v>582</v>
-      </c>
-      <c r="I90" t="n">
-        <v>422311</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>44950.14</v>
       </c>
       <c r="E91" t="n">
-        <v>24932.35</v>
+        <v>174.08</v>
       </c>
       <c r="F91" t="n">
-        <v>61719.85</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>111871</v>
+        <v>4719.6</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>813.45</v>
       </c>
       <c r="I91" t="n">
-        <v>198523.2</v>
+        <v>50657.27</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -9284,63 +9268,61 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>85199.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A93" s="1" t="n"/>
       <c r="B93" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C93" t="n">
-        <v>148995</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1280756</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>22100</v>
+        <v>11158</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="I93" t="n">
-        <v>1454837</v>
+        <v>11257.8</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>80320</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>127454</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>135853</v>
+        <v>2387.66</v>
       </c>
       <c r="H94" t="n">
-        <v>610.7</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>355737.7</v>
+        <v>2387.66</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -9367,69 +9349,69 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>276513.8</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C96" t="n">
-        <v>10348</v>
+        <v>27369</v>
       </c>
       <c r="D96" t="n">
-        <v>671294</v>
+        <v>2289328</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="G96" t="n">
-        <v>14300</v>
+        <v>65915</v>
       </c>
       <c r="H96" t="n">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>696374</v>
+        <v>2382846</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="n"/>
       <c r="B97" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>53454</v>
       </c>
       <c r="E97" t="n">
-        <v>12241</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="G97" t="n">
-        <v>160529</v>
+        <v>14340</v>
       </c>
       <c r="H97" t="n">
-        <v>1172</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>173942</v>
+        <v>67947</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -9438,54 +9420,52 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>5953</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>125670</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>13551</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>151054</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C99" t="n">
-        <v>3550438.19</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>1121184.56</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>38750.76</v>
+        <v>2731</v>
       </c>
       <c r="F99" t="n">
-        <v>85082.42</v>
+        <v>6865</v>
       </c>
       <c r="G99" t="n">
-        <v>28109.74</v>
+        <v>99960</v>
       </c>
       <c r="H99" t="n">
-        <v>528.9300000000001</v>
+        <v>20204</v>
       </c>
       <c r="I99" t="n">
-        <v>4824094.6</v>
+        <v>129760</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -9494,75 +9474,75 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>31520.76000000001</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>115731.24</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>125127.52</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>19145.61</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>291525.13</v>
+        <v>450021</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="1" t="n"/>
+      <c r="A101" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>183100</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>122475</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>3725</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>309361</v>
+        <v>318414</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C102" t="n">
-        <v>898661.74</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>2204669.93</v>
+        <v>4780</v>
       </c>
       <c r="E102" t="n">
-        <v>30965.18</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>162746.45</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>302937.18</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>2282.47</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>3602262.949999999</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -9574,117 +9554,117 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>31450</v>
+        <v>8000</v>
       </c>
       <c r="E103" t="n">
-        <v>26570.89</v>
+        <v>9693</v>
       </c>
       <c r="F103" t="n">
-        <v>141090.41</v>
+        <v>21427</v>
       </c>
       <c r="G103" t="n">
-        <v>452560.05</v>
+        <v>20392</v>
       </c>
       <c r="H103" t="n">
-        <v>17450.39</v>
+        <v>88</v>
       </c>
       <c r="I103" t="n">
-        <v>669121.74</v>
+        <v>59600</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>893</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2140</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2242292.81</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C105" t="n">
-        <v>590313.7</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>590313.7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="1" t="n"/>
-      <c r="B106" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>76773</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>4769</v>
       </c>
       <c r="E106" t="n">
-        <v>21477</v>
+        <v>900</v>
       </c>
       <c r="F106" t="n">
-        <v>55351</v>
+        <v>9446.41</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>55633</v>
+        <v>519.74</v>
       </c>
       <c r="I106" t="n">
-        <v>132461</v>
+        <v>92408.15000000001</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -9693,48 +9673,46 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>149847</v>
+        <v>15320</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>10084.67</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>32659.05</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>7175.4</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>188.21</v>
       </c>
       <c r="I108" t="n">
-        <v>10000</v>
+        <v>50107.32999999999</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -9743,81 +9721,81 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>3335.67</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>8617.110000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>6638.24</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1201</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>19792.02</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C110" t="n">
-        <v>1952068.9</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>5414318.170000001</v>
+        <v>46004</v>
       </c>
       <c r="E110" t="n">
-        <v>136492.33</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>112888.49</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>2092396.87</v>
+        <v>36700</v>
       </c>
       <c r="H110" t="n">
-        <v>73374.59</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>9781539.350000003</v>
+        <v>82704</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="E111" t="n">
-        <v>146309.61</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>158986.99</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>873287.36</v>
+        <v>35000</v>
       </c>
       <c r="H111" t="n">
-        <v>57738.38999999998</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1236322.35</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1" t="n"/>
       <c r="B112" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -9826,158 +9804,156 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>703.35</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>54241</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>39999.75</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>800.6</v>
       </c>
       <c r="I112" t="n">
-        <v>12053857.16</v>
+        <v>95744.7</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C113" t="n">
-        <v>1002308</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>158188</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>15531</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>57200</v>
+        <v>7227.7</v>
       </c>
       <c r="G113" t="n">
-        <v>42551</v>
+        <v>20120.8</v>
       </c>
       <c r="H113" t="n">
-        <v>2967</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1278745</v>
+        <v>27348.5</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1501560.18</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1081739.92</v>
+      </c>
+      <c r="E115" t="n">
+        <v>84055.53999999998</v>
+      </c>
+      <c r="F115" t="n">
+        <v>127775.41</v>
+      </c>
+      <c r="G115" t="n">
+        <v>76985.41</v>
+      </c>
+      <c r="H115" t="n">
+        <v>6282.440000000001</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2878398.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C114" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E114" t="n">
-        <v>77806</v>
-      </c>
-      <c r="F114" t="n">
-        <v>210371.24</v>
-      </c>
-      <c r="G114" t="n">
-        <v>164733.26</v>
-      </c>
-      <c r="H114" t="n">
-        <v>16116.6</v>
-      </c>
-      <c r="I114" t="n">
-        <v>486027.1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1" t="n"/>
-      <c r="B115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>273102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C116" t="n">
-        <v>140786</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>49767.62</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>193013.3899999999</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>89265.74000000001</v>
       </c>
       <c r="H116" t="n">
-        <v>141586</v>
+        <v>11482.85</v>
       </c>
       <c r="I116" t="n">
-        <v>282372</v>
+        <v>343529.6</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1" t="n"/>
       <c r="B117" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>10174.64</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>29049.98</v>
+        <v>1107.52</v>
       </c>
       <c r="F117" t="n">
-        <v>14550</v>
+        <v>7331.4</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="H117" t="n">
-        <v>48719.13999999999</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>102493.76</v>
+        <v>10188.92</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -10004,21 +9980,21 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>323107.23</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C119" t="n">
-        <v>71985.09999999999</v>
+        <v>3286875.65</v>
       </c>
       <c r="D119" t="n">
-        <v>129977.4</v>
+        <v>2553543.09</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -10027,19 +10003,19 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>16514.38</v>
+        <v>22234</v>
       </c>
       <c r="H119" t="n">
-        <v>71.48</v>
+        <v>2309.1</v>
       </c>
       <c r="I119" t="n">
-        <v>218548.36</v>
+        <v>5864961.84</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1" t="n"/>
       <c r="B120" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -10048,25 +10024,25 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>8214.75</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>18465.02</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>33231</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>734.14</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>60644.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -10081,48 +10057,46 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>46910</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>35000</v>
+        <v>46910</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C122" t="n">
-        <v>2485715</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>4513102</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>4267</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>32649</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>401078</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>2561</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>7439372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1" t="n"/>
       <c r="B123" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -10131,31 +10105,33 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>64032</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>231366</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>301213</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>21863</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>618474</v>
+        <v>477699.37</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="1" t="n"/>
+      <c r="A124" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B124" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>44680.4</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>221529.3</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -10167,30 +10143,28 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1624.45</v>
       </c>
       <c r="I124" t="n">
-        <v>3214108</v>
+        <v>267834.15</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A125" s="1" t="n"/>
       <c r="B125" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C125" t="n">
-        <v>2667</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>175724.5</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>40571.01000000001</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>5361.98</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -10199,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>224324.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -10211,117 +10185,117 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>7786.800000000001</v>
+        <v>4223.07</v>
       </c>
       <c r="F126" t="n">
-        <v>16686.21</v>
+        <v>8812.66</v>
       </c>
       <c r="G126" t="n">
-        <v>13346.6</v>
+        <v>17274.74</v>
       </c>
       <c r="H126" t="n">
-        <v>651.65</v>
+        <v>1670.4</v>
       </c>
       <c r="I126" t="n">
-        <v>43171.26</v>
+        <v>31980.87</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1" t="n"/>
       <c r="B127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2516.65</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4363.7</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H127" t="n">
+        <v>500</v>
+      </c>
+      <c r="I127" t="n">
+        <v>8880.35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>7415</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C128" t="n">
-        <v>507078</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2974195</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1537179</v>
-      </c>
-      <c r="F128" t="n">
-        <v>102416</v>
-      </c>
-      <c r="G128" t="n">
-        <v>521019</v>
-      </c>
-      <c r="H128" t="n">
-        <v>12458</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5654345</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1" t="n"/>
-      <c r="B129" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E129" t="n">
-        <v>39500</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>115614</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>265545</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>45107</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>465766</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1" t="n"/>
       <c r="B130" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -10336,75 +10310,75 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>7666519</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C131" t="n">
-        <v>317836.26</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>334880.45</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>84582.89</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>14883.92999999999</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I131" t="n">
-        <v>764783.5299999998</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1" t="n"/>
       <c r="B132" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>36816.17999999999</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>41512.37</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>75833.48</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>2566</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>157728.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="1" t="n"/>
+      <c r="A133" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B133" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1731031</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>474174</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -10413,42 +10387,40 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>58471</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I133" t="n">
-        <v>5847.11</v>
+        <v>2263705</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C134" t="n">
-        <v>105072</v>
+        <v>499807</v>
       </c>
       <c r="D134" t="n">
-        <v>671897.83</v>
+        <v>264329</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>30614.5</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>167787.88</v>
+        <v>14496</v>
       </c>
       <c r="H134" t="n">
-        <v>14499.21</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>989871.4199999999</v>
+        <v>778632</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -10463,108 +10435,108 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>18151.56</v>
+        <v>1628</v>
       </c>
       <c r="F135" t="n">
-        <v>70841.59</v>
+        <v>3003</v>
       </c>
       <c r="G135" t="n">
-        <v>198809</v>
+        <v>20854</v>
       </c>
       <c r="H135" t="n">
-        <v>50996.79</v>
+        <v>516</v>
       </c>
       <c r="I135" t="n">
-        <v>338798.9400000001</v>
+        <v>26001</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1" t="n"/>
       <c r="B136" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>16265</v>
+      </c>
+      <c r="F136" t="n">
+        <v>36248</v>
+      </c>
+      <c r="G136" t="n">
+        <v>103691</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9437</v>
+      </c>
+      <c r="I136" t="n">
+        <v>165641</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>258913.8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>833283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C137" t="n">
-        <v>92397</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1394587</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>123791</v>
-      </c>
-      <c r="G137" t="n">
-        <v>422574</v>
-      </c>
-      <c r="H137" t="n">
-        <v>11358</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2044707</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1" t="n"/>
-      <c r="B138" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>24564.24</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>186037.19</v>
       </c>
       <c r="E138" t="n">
-        <v>30126</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>70062</v>
+        <v>3900</v>
       </c>
       <c r="G138" t="n">
-        <v>288392</v>
+        <v>1150</v>
       </c>
       <c r="H138" t="n">
-        <v>4435</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>393015</v>
+        <v>215651.43</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1" t="n"/>
       <c r="B139" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -10585,42 +10557,40 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>49314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A140" s="1" t="n"/>
       <c r="B140" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C140" t="n">
-        <v>112750</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>97113.42999999999</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>803.4400000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>7780.68</v>
+        <v>2116.98</v>
       </c>
       <c r="G140" t="n">
-        <v>14550</v>
+        <v>34767.8</v>
       </c>
       <c r="H140" t="n">
-        <v>290.24</v>
+        <v>2262.41</v>
       </c>
       <c r="I140" t="n">
-        <v>232484.35</v>
+        <v>39950.63</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1" t="n"/>
       <c r="B141" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -10632,16 +10602,16 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>4834.26</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>12629.72</v>
+        <v>2250</v>
       </c>
       <c r="H141" t="n">
-        <v>525.54</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>17989.52</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -10668,42 +10638,42 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>24424.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>10544</v>
       </c>
       <c r="D143" t="n">
-        <v>55249</v>
+        <v>395949</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>13126</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="I143" t="n">
-        <v>55249</v>
+        <v>422311</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1" t="n"/>
       <c r="B144" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -10712,25 +10682,25 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>17588</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>26799</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>14300</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>2039</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>60726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1" t="n"/>
       <c r="B145" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -10739,54 +10709,52 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>24771</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>61039</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>111371</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>4400</v>
+        <v>197181</v>
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A146" s="1" t="n"/>
       <c r="B146" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C146" t="n">
-        <v>553987.36</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>429184.9</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>11416.48000000001</v>
+        <v>161.35</v>
       </c>
       <c r="F146" t="n">
-        <v>59832.08999999999</v>
+        <v>680.85</v>
       </c>
       <c r="G146" t="n">
-        <v>85462.42000000001</v>
+        <v>500</v>
       </c>
       <c r="H146" t="n">
-        <v>7288.66</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1147171.91</v>
+        <v>1342.2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1" t="n"/>
       <c r="B147" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -10795,60 +10763,60 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>18536.97000000002</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>78313.73999999998</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>89792.91</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>741</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>187384.6200000001</v>
+        <v>85199.5</v>
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="1" t="n"/>
+      <c r="A148" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B148" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>148995</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>999046</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>2026</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>22100</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>200834.99</v>
+        <v>1173127</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A149" s="1" t="n"/>
       <c r="B149" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C149" t="n">
-        <v>329790</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>356852</v>
+        <v>281710</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -10857,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>51550</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>3658</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>741850</v>
+        <v>281710</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -10875,117 +10843,117 @@
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="E150" t="n">
-        <v>91547</v>
+        <v>61276</v>
       </c>
       <c r="F150" t="n">
-        <v>201614</v>
+        <v>120012</v>
       </c>
       <c r="G150" t="n">
-        <v>142712</v>
+        <v>133137</v>
       </c>
       <c r="H150" t="n">
-        <v>5576</v>
+        <v>28.7</v>
       </c>
       <c r="I150" t="n">
-        <v>441449</v>
+        <v>322953.7</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1" t="n"/>
       <c r="B151" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E151" t="n">
+        <v>19044</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7442</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2716</v>
+      </c>
+      <c r="H151" t="n">
+        <v>582</v>
+      </c>
+      <c r="I151" t="n">
+        <v>32784</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1" t="n"/>
+      <c r="B152" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>4219</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C152" t="n">
-        <v>903349.74</v>
-      </c>
-      <c r="D152" t="n">
-        <v>274522.8</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" t="n">
-        <v>18054.62</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1195927.16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="1" t="n"/>
-      <c r="B153" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>10348</v>
       </c>
       <c r="D153" t="n">
-        <v>2730.4</v>
+        <v>661708</v>
       </c>
       <c r="E153" t="n">
-        <v>10926.63</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>19221.55</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>48701.2</v>
+        <v>14300</v>
       </c>
       <c r="H153" t="n">
-        <v>5614.16</v>
+        <v>432</v>
       </c>
       <c r="I153" t="n">
-        <v>87193.94</v>
+        <v>686788</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1" t="n"/>
       <c r="B154" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>9586</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -11000,63 +10968,61 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>295666.1</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A155" s="1" t="n"/>
       <c r="B155" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C155" t="n">
-        <v>87276.67</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>1068297.3</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>2298.44</v>
+        <v>11408</v>
       </c>
       <c r="F155" t="n">
-        <v>6063.97</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>43077.08</v>
+        <v>160529</v>
       </c>
       <c r="H155" t="n">
-        <v>15095.56</v>
+        <v>1172</v>
       </c>
       <c r="I155" t="n">
-        <v>1222109.02</v>
+        <v>173109</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1" t="n"/>
       <c r="B156" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>41166.56</v>
+        <v>833</v>
       </c>
       <c r="F156" t="n">
-        <v>143905.1000000001</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>232899.84</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>43592.82999999999</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>464064.3299999997</v>
+        <v>833</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -11083,36 +11049,36 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>337584.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C158" t="n">
-        <v>5300</v>
+        <v>3550438.19</v>
       </c>
       <c r="D158" t="n">
-        <v>342925</v>
+        <v>1121184.56</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>38750.76</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>85082.42</v>
       </c>
       <c r="G158" t="n">
-        <v>21400</v>
+        <v>28109.74</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>528.9300000000001</v>
       </c>
       <c r="I158" t="n">
-        <v>369625</v>
+        <v>4824094.6</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -11127,104 +11093,2763 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>12438</v>
+        <v>12891.06</v>
       </c>
       <c r="F159" t="n">
-        <v>2693</v>
+        <v>48618.48</v>
       </c>
       <c r="G159" t="n">
-        <v>8050</v>
+        <v>49800</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>23181</v>
+        <v>111309.54</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1" t="n"/>
       <c r="B160" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>18629.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>67112.75999999999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>75327.52</v>
+      </c>
+      <c r="H160" t="n">
+        <v>19145.61</v>
+      </c>
+      <c r="I160" t="n">
+        <v>180215.59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>309361</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C162" t="n">
+        <v>601093.5700000001</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1531590.82</v>
+      </c>
+      <c r="E162" t="n">
+        <v>20503.35</v>
+      </c>
+      <c r="F162" t="n">
+        <v>118436.13</v>
+      </c>
+      <c r="G162" t="n">
+        <v>178936.18</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2282.47</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2452842.52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C163" t="n">
+        <v>297568.17</v>
+      </c>
+      <c r="D163" t="n">
+        <v>673079.11</v>
+      </c>
+      <c r="E163" t="n">
+        <v>10461.83</v>
+      </c>
+      <c r="F163" t="n">
+        <v>44310.32</v>
+      </c>
+      <c r="G163" t="n">
+        <v>124001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1149420.43</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1" t="n"/>
+      <c r="B164" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E164" t="n">
+        <v>10307.34</v>
+      </c>
+      <c r="F164" t="n">
+        <v>51807.03000000001</v>
+      </c>
+      <c r="G164" t="n">
+        <v>196704.85</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3899.82</v>
+      </c>
+      <c r="I164" t="n">
+        <v>271219.04</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>22950</v>
+      </c>
+      <c r="E165" t="n">
+        <v>16263.55</v>
+      </c>
+      <c r="F165" t="n">
+        <v>89283.38</v>
+      </c>
+      <c r="G165" t="n">
+        <v>255855.2</v>
+      </c>
+      <c r="H165" t="n">
+        <v>13550.57</v>
+      </c>
+      <c r="I165" t="n">
+        <v>397902.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1" t="n"/>
+      <c r="B166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>2242292.81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C167" t="n">
+        <v>590313.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>590313.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1" t="n"/>
+      <c r="B168" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1" t="n"/>
+      <c r="B169" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>21477</v>
+      </c>
+      <c r="F169" t="n">
+        <v>55351</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>55633</v>
+      </c>
+      <c r="I169" t="n">
+        <v>132461</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="1" t="n"/>
+      <c r="B170" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="1" t="n"/>
+      <c r="B171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>149847</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1952068.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5413318.170000001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>136492.33</v>
+      </c>
+      <c r="F174" t="n">
+        <v>104955.09</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2090696.87</v>
+      </c>
+      <c r="H174" t="n">
+        <v>73374.59</v>
+      </c>
+      <c r="I174" t="n">
+        <v>9770905.950000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>7933.4</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1700</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>10633.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="1" t="n"/>
+      <c r="B176" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>144759.61</v>
+      </c>
+      <c r="F176" t="n">
+        <v>157668.99</v>
+      </c>
+      <c r="G176" t="n">
+        <v>811235.8099999999</v>
+      </c>
+      <c r="H176" t="n">
+        <v>56738.95999999998</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1170403.37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="1" t="n"/>
+      <c r="B177" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1550</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1318</v>
+      </c>
+      <c r="G177" t="n">
+        <v>62051.55</v>
+      </c>
+      <c r="H177" t="n">
+        <v>999.4299999999999</v>
+      </c>
+      <c r="I177" t="n">
+        <v>65918.98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="1" t="n"/>
+      <c r="B178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>12053857.16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C179" t="n">
+        <v>702308</v>
+      </c>
+      <c r="D179" t="n">
+        <v>145429</v>
+      </c>
+      <c r="E179" t="n">
+        <v>15185</v>
+      </c>
+      <c r="F179" t="n">
+        <v>53082</v>
+      </c>
+      <c r="G179" t="n">
+        <v>41551</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2967</v>
+      </c>
+      <c r="I179" t="n">
+        <v>960522</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="1" t="n"/>
+      <c r="B180" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C180" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D180" t="n">
+        <v>12759</v>
+      </c>
+      <c r="E180" t="n">
+        <v>346</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4118</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>318223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="1" t="n"/>
+      <c r="B181" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E181" t="n">
+        <v>74399</v>
+      </c>
+      <c r="F181" t="n">
+        <v>196056.24</v>
+      </c>
+      <c r="G181" t="n">
+        <v>108081.26</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1173.6</v>
+      </c>
+      <c r="I181" t="n">
+        <v>392210.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1" t="n"/>
+      <c r="B182" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3407</v>
+      </c>
+      <c r="F182" t="n">
+        <v>14315</v>
+      </c>
+      <c r="G182" t="n">
+        <v>56652</v>
+      </c>
+      <c r="H182" t="n">
+        <v>14943</v>
+      </c>
+      <c r="I182" t="n">
+        <v>93817</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="1" t="n"/>
+      <c r="B183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>273102</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C184" t="n">
+        <v>140786</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>141586</v>
+      </c>
+      <c r="I184" t="n">
+        <v>282372</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="1" t="n"/>
+      <c r="B185" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="1" t="n"/>
+      <c r="B186" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>10174.64</v>
+      </c>
+      <c r="E186" t="n">
+        <v>23994.45</v>
+      </c>
+      <c r="F186" t="n">
+        <v>14550</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>48719.13999999999</v>
+      </c>
+      <c r="I186" t="n">
+        <v>97438.23000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1" t="n"/>
+      <c r="B187" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5055.53</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>5055.53</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1" t="n"/>
+      <c r="B188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C189" t="n">
+        <v>71985.09999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>129977.4</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>16514.38</v>
+      </c>
+      <c r="H189" t="n">
+        <v>71.48</v>
+      </c>
+      <c r="I189" t="n">
+        <v>218548.36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="1" t="n"/>
+      <c r="B190" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>7874.049999999999</v>
+      </c>
+      <c r="F190" t="n">
+        <v>16702.5</v>
+      </c>
+      <c r="G190" t="n">
+        <v>25770</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>50346.55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="1" t="n"/>
+      <c r="B191" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>340.7</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1762.52</v>
+      </c>
+      <c r="G191" t="n">
+        <v>7461</v>
+      </c>
+      <c r="H191" t="n">
+        <v>734.14</v>
+      </c>
+      <c r="I191" t="n">
+        <v>10298.36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="1" t="n"/>
+      <c r="B192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C193" t="n">
+        <v>309006</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3375697</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4267</v>
+      </c>
+      <c r="F193" t="n">
+        <v>32649</v>
+      </c>
+      <c r="G193" t="n">
+        <v>213612</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2395</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3937626</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="1" t="n"/>
+      <c r="B194" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2176709</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1137405</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>187466</v>
+      </c>
+      <c r="H194" t="n">
+        <v>166</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3501746</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="1" t="n"/>
+      <c r="B195" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>59329</v>
+      </c>
+      <c r="F195" t="n">
+        <v>211629</v>
+      </c>
+      <c r="G195" t="n">
+        <v>235805</v>
+      </c>
+      <c r="H195" t="n">
+        <v>15970</v>
+      </c>
+      <c r="I195" t="n">
+        <v>522733</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="1" t="n"/>
+      <c r="B196" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4703</v>
+      </c>
+      <c r="F196" t="n">
+        <v>19737</v>
+      </c>
+      <c r="G196" t="n">
+        <v>65408</v>
+      </c>
+      <c r="H196" t="n">
+        <v>5893</v>
+      </c>
+      <c r="I196" t="n">
+        <v>95741</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="1" t="n"/>
+      <c r="B197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3214108</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>129740</v>
+      </c>
+      <c r="E198" t="n">
+        <v>39621.01000000001</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5308.98</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>174669.99</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="1" t="n"/>
+      <c r="B199" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2667</v>
+      </c>
+      <c r="D199" t="n">
+        <v>45984.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>950</v>
+      </c>
+      <c r="F199" t="n">
+        <v>53</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>49654.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1" t="n"/>
+      <c r="B200" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>4700</v>
+      </c>
+      <c r="E200" t="n">
+        <v>5424.000000000001</v>
+      </c>
+      <c r="F200" t="n">
+        <v>10816.78</v>
+      </c>
+      <c r="G200" t="n">
+        <v>6971.6</v>
+      </c>
+      <c r="H200" t="n">
+        <v>190.25</v>
+      </c>
+      <c r="I200" t="n">
+        <v>28102.63</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1" t="n"/>
+      <c r="B201" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2362.8</v>
+      </c>
+      <c r="F201" t="n">
+        <v>5869.43</v>
+      </c>
+      <c r="G201" t="n">
+        <v>6375</v>
+      </c>
+      <c r="H201" t="n">
+        <v>461.4</v>
+      </c>
+      <c r="I201" t="n">
+        <v>15068.63</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1" t="n"/>
+      <c r="B202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C203" t="n">
+        <v>507078</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2974189</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1537179</v>
+      </c>
+      <c r="F203" t="n">
+        <v>102416</v>
+      </c>
+      <c r="G203" t="n">
+        <v>521019</v>
+      </c>
+      <c r="H203" t="n">
+        <v>12458</v>
+      </c>
+      <c r="I203" t="n">
+        <v>5654339</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="1" t="n"/>
+      <c r="B204" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="1" t="n"/>
+      <c r="B205" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>39492</v>
+      </c>
+      <c r="F205" t="n">
+        <v>115599</v>
+      </c>
+      <c r="G205" t="n">
+        <v>265494</v>
+      </c>
+      <c r="H205" t="n">
+        <v>45098</v>
+      </c>
+      <c r="I205" t="n">
+        <v>465683</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="1" t="n"/>
+      <c r="B206" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>8</v>
+      </c>
+      <c r="F206" t="n">
+        <v>15</v>
+      </c>
+      <c r="G206" t="n">
+        <v>51</v>
+      </c>
+      <c r="H206" t="n">
+        <v>9</v>
+      </c>
+      <c r="I206" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="1" t="n"/>
+      <c r="B207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>7666519</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C208" t="n">
+        <v>22143.3</v>
+      </c>
+      <c r="D208" t="n">
+        <v>290508.6</v>
+      </c>
+      <c r="E208" t="n">
+        <v>20553.67</v>
+      </c>
+      <c r="F208" t="n">
+        <v>12640.39999999999</v>
+      </c>
+      <c r="G208" t="n">
+        <v>8600</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>354445.9699999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="1" t="n"/>
+      <c r="B209" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C209" t="n">
+        <v>295692.96</v>
+      </c>
+      <c r="D209" t="n">
+        <v>44371.85</v>
+      </c>
+      <c r="E209" t="n">
+        <v>64029.22</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2243.53</v>
+      </c>
+      <c r="G209" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>410337.5600000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="1" t="n"/>
+      <c r="B210" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>27743.22999999999</v>
+      </c>
+      <c r="F210" t="n">
+        <v>29863.8</v>
+      </c>
+      <c r="G210" t="n">
+        <v>53918.5</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1208.66</v>
+      </c>
+      <c r="I210" t="n">
+        <v>112734.19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="1" t="n"/>
+      <c r="B211" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E211" t="n">
+        <v>9072.950000000001</v>
+      </c>
+      <c r="F211" t="n">
+        <v>11648.57</v>
+      </c>
+      <c r="G211" t="n">
+        <v>21914.98</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1357.34</v>
+      </c>
+      <c r="I211" t="n">
+        <v>44993.84</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="1" t="n"/>
+      <c r="B212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>5847.11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C213" t="n">
+        <v>45672</v>
+      </c>
+      <c r="D213" t="n">
+        <v>397549.78</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>17520</v>
+      </c>
+      <c r="G213" t="n">
+        <v>92083.48000000001</v>
+      </c>
+      <c r="H213" t="n">
+        <v>11645.71</v>
+      </c>
+      <c r="I213" t="n">
+        <v>564470.97</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="1" t="n"/>
+      <c r="B214" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C214" t="n">
+        <v>59400</v>
+      </c>
+      <c r="D214" t="n">
+        <v>274348.05</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>13094.5</v>
+      </c>
+      <c r="G214" t="n">
+        <v>75704.39999999999</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2853.5</v>
+      </c>
+      <c r="I214" t="n">
+        <v>425400.45</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="1" t="n"/>
+      <c r="B215" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>8954.210000000001</v>
+      </c>
+      <c r="F215" t="n">
+        <v>29977.00999999999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>100063.62</v>
+      </c>
+      <c r="H215" t="n">
+        <v>23845.1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>162839.9400000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="1" t="n"/>
+      <c r="B216" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>9197.35</v>
+      </c>
+      <c r="F216" t="n">
+        <v>40864.58</v>
+      </c>
+      <c r="G216" t="n">
+        <v>98745.38</v>
+      </c>
+      <c r="H216" t="n">
+        <v>27151.69</v>
+      </c>
+      <c r="I216" t="n">
+        <v>175959</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="1" t="n"/>
+      <c r="B217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>258913.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C218" t="n">
+        <v>91579</v>
+      </c>
+      <c r="D218" t="n">
+        <v>662757</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>397</v>
+      </c>
+      <c r="G218" t="n">
+        <v>23550</v>
+      </c>
+      <c r="H218" t="n">
+        <v>58</v>
+      </c>
+      <c r="I218" t="n">
+        <v>778341</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="1" t="n"/>
+      <c r="B219" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C219" t="n">
+        <v>818</v>
+      </c>
+      <c r="D219" t="n">
+        <v>731830</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>123394</v>
+      </c>
+      <c r="G219" t="n">
+        <v>399024</v>
+      </c>
+      <c r="H219" t="n">
+        <v>11300</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1266366</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="1" t="n"/>
+      <c r="B220" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>23730</v>
+      </c>
+      <c r="F220" t="n">
+        <v>53133</v>
+      </c>
+      <c r="G220" t="n">
+        <v>76673</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2288</v>
+      </c>
+      <c r="I220" t="n">
+        <v>155824</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="1" t="n"/>
+      <c r="B221" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6396</v>
+      </c>
+      <c r="F221" t="n">
+        <v>16929</v>
+      </c>
+      <c r="G221" t="n">
+        <v>211719</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2147</v>
+      </c>
+      <c r="I221" t="n">
+        <v>237191</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="1" t="n"/>
+      <c r="B222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>49314</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C223" t="n">
+        <v>35000</v>
+      </c>
+      <c r="D223" t="n">
+        <v>59264.07</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3291.08</v>
+      </c>
+      <c r="G223" t="n">
+        <v>13550</v>
+      </c>
+      <c r="H223" t="n">
+        <v>91</v>
+      </c>
+      <c r="I223" t="n">
+        <v>111196.15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="1" t="n"/>
+      <c r="B224" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C224" t="n">
+        <v>77750</v>
+      </c>
+      <c r="D224" t="n">
+        <v>37849.36</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>4489.6</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H224" t="n">
+        <v>199.24</v>
+      </c>
+      <c r="I224" t="n">
+        <v>121288.2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="1" t="n"/>
+      <c r="B225" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3134.27</v>
+      </c>
+      <c r="G225" t="n">
+        <v>7449.719999999999</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>10583.99</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="1" t="n"/>
+      <c r="B226" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1699.99</v>
+      </c>
+      <c r="G226" t="n">
+        <v>5180</v>
+      </c>
+      <c r="H226" t="n">
+        <v>525.54</v>
+      </c>
+      <c r="I226" t="n">
+        <v>7405.53</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="1" t="n"/>
+      <c r="B227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>24424.41</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>55249</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>55249</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="1" t="n"/>
+      <c r="B229" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="1" t="n"/>
+      <c r="B230" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>17588</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26799</v>
+      </c>
+      <c r="G230" t="n">
+        <v>14300</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2039</v>
+      </c>
+      <c r="I230" t="n">
+        <v>60726</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="1" t="n"/>
+      <c r="B231" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="1" t="n"/>
+      <c r="B232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C233" t="n">
+        <v>553987.36</v>
+      </c>
+      <c r="D233" t="n">
+        <v>425934.9</v>
+      </c>
+      <c r="E233" t="n">
+        <v>11416.48000000001</v>
+      </c>
+      <c r="F233" t="n">
+        <v>59832.08999999999</v>
+      </c>
+      <c r="G233" t="n">
+        <v>85462.42000000001</v>
+      </c>
+      <c r="H233" t="n">
+        <v>7288.66</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1143921.91</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="1" t="n"/>
+      <c r="B234" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>3250</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="1" t="n"/>
+      <c r="B235" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>18279.02000000002</v>
+      </c>
+      <c r="F235" t="n">
+        <v>77413.61999999998</v>
+      </c>
+      <c r="G235" t="n">
+        <v>82768.38</v>
+      </c>
+      <c r="H235" t="n">
+        <v>741</v>
+      </c>
+      <c r="I235" t="n">
+        <v>179202.02</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="1" t="n"/>
+      <c r="B236" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>257.95</v>
+      </c>
+      <c r="F236" t="n">
+        <v>900.12</v>
+      </c>
+      <c r="G236" t="n">
+        <v>7024.53</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>8182.599999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="1" t="n"/>
+      <c r="B237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>200834.99</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C238" t="n">
+        <v>152345</v>
+      </c>
+      <c r="D238" t="n">
+        <v>178426</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="n">
+        <v>24200</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1829</v>
+      </c>
+      <c r="I238" t="n">
+        <v>356800</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="1" t="n"/>
+      <c r="B239" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C239" t="n">
+        <v>177445</v>
+      </c>
+      <c r="D239" t="n">
+        <v>178426</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="n">
+        <v>27350</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1829</v>
+      </c>
+      <c r="I239" t="n">
+        <v>385050</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="1" t="n"/>
+      <c r="B240" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>45152</v>
+      </c>
+      <c r="F240" t="n">
+        <v>99106</v>
+      </c>
+      <c r="G240" t="n">
+        <v>58681</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2788</v>
+      </c>
+      <c r="I240" t="n">
+        <v>205727</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="1" t="n"/>
+      <c r="B241" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>46395</v>
+      </c>
+      <c r="F241" t="n">
+        <v>102508</v>
+      </c>
+      <c r="G241" t="n">
+        <v>84031</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2788</v>
+      </c>
+      <c r="I241" t="n">
+        <v>235722</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="1" t="n"/>
+      <c r="B242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C243" t="n">
+        <v>883349.74</v>
+      </c>
+      <c r="D243" t="n">
+        <v>237964.92</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="n">
+        <v>13734.62</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1135049.28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="1" t="n"/>
+      <c r="B244" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C244" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D244" t="n">
+        <v>36557.88</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="n">
+        <v>4320</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>60877.88</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="1" t="n"/>
+      <c r="B245" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2730.4</v>
+      </c>
+      <c r="E245" t="n">
+        <v>9267.920000000004</v>
+      </c>
+      <c r="F245" t="n">
+        <v>16563.67</v>
+      </c>
+      <c r="G245" t="n">
+        <v>43859.27</v>
+      </c>
+      <c r="H245" t="n">
+        <v>4598.86</v>
+      </c>
+      <c r="I245" t="n">
+        <v>77020.12000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="1" t="n"/>
+      <c r="B246" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1658.71</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2657.88</v>
+      </c>
+      <c r="G246" t="n">
+        <v>4841.93</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1015.3</v>
+      </c>
+      <c r="I246" t="n">
+        <v>10173.82</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="1" t="n"/>
+      <c r="B247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>295666.1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C248" t="n">
+        <v>87276.67</v>
+      </c>
+      <c r="D248" t="n">
+        <v>896265.2999999998</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2298.44</v>
+      </c>
+      <c r="F248" t="n">
+        <v>6063.97</v>
+      </c>
+      <c r="G248" t="n">
+        <v>41577.08</v>
+      </c>
+      <c r="H248" t="n">
+        <v>15095.56</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1048577.02</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="1" t="n"/>
+      <c r="B249" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>172032</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>173532</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="1" t="n"/>
+      <c r="B250" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E250" t="n">
+        <v>38832.48</v>
+      </c>
+      <c r="F250" t="n">
+        <v>136829.3400000001</v>
+      </c>
+      <c r="G250" t="n">
+        <v>167244.84</v>
+      </c>
+      <c r="H250" t="n">
+        <v>43592.82999999999</v>
+      </c>
+      <c r="I250" t="n">
+        <v>388999.4899999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="1" t="n"/>
+      <c r="B251" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2334.08</v>
+      </c>
+      <c r="F251" t="n">
+        <v>7075.76</v>
+      </c>
+      <c r="G251" t="n">
+        <v>65655</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>75064.84</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="1" t="n"/>
+      <c r="B252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>337584.06</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C253" t="n">
+        <v>5300</v>
+      </c>
+      <c r="D253" t="n">
+        <v>342925</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="n">
+        <v>21400</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>369625</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="1" t="n"/>
+      <c r="B254" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="1" t="n"/>
+      <c r="B255" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>7183</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2693</v>
+      </c>
+      <c r="G255" t="n">
+        <v>8050</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>17926</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="1" t="n"/>
+      <c r="B256" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="1" t="n"/>
+      <c r="B257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A184:A188"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="A213:A217"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="A223:A227"/>
+    <mergeCell ref="A228:A232"/>
+    <mergeCell ref="A233:A237"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A248:A252"/>
+    <mergeCell ref="A253:A257"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -11249,16 +13874,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
